--- a/banhang24/Template/ExportExcel/Report/BaoCaoNhapHang/Teamplate_BaoCaoTraHangNhaCungCap.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoNhapHang/Teamplate_BaoCaoTraHangNhaCungCap.xlsx
@@ -12,15 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Tổng cộng:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <r>
       <t xml:space="preserve">Mã chứng từ gốc
@@ -220,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +261,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,14 +273,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -306,49 +297,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -375,7 +329,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,32 +341,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,11 +661,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,87 +673,87 @@
     <col min="1" max="1" width="17" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="13" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="4" customWidth="1"/>
     <col min="7" max="7" width="20.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="7" customWidth="1"/>
     <col min="9" max="11" width="14.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" style="16" customWidth="1"/>
+    <col min="12" max="12" width="25.85546875" style="14" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="14"/>
-    </row>
-    <row r="4" spans="1:13" s="5" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="H4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="J4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -830,7 +768,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="17"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -844,7 +782,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="17"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -858,7 +796,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="17"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -872,7 +810,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="17"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -886,7 +824,7 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="17"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -900,7 +838,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -914,7 +852,7 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -928,7 +866,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="17"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -942,7 +880,7 @@
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="17"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -956,7 +894,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="17"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -970,7 +908,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="17"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -984,7 +922,7 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="17"/>
+      <c r="L16" s="15"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -998,7 +936,7 @@
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
-      <c r="L17" s="17"/>
+      <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1012,7 +950,7 @@
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="17"/>
+      <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1026,7 +964,7 @@
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="17"/>
+      <c r="L19" s="15"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1040,7 +978,7 @@
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="17"/>
+      <c r="L20" s="15"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1054,7 +992,7 @@
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="17"/>
+      <c r="L21" s="15"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1068,7 +1006,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="17"/>
+      <c r="L22" s="15"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1082,7 +1020,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="17"/>
+      <c r="L23" s="15"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -1096,7 +1034,7 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="17"/>
+      <c r="L24" s="15"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
@@ -1110,7 +1048,7 @@
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="17"/>
+      <c r="L25" s="15"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
@@ -1124,7 +1062,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
-      <c r="L26" s="17"/>
+      <c r="L26" s="15"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1138,7 +1076,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27" s="17"/>
+      <c r="L27" s="15"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -1152,41 +1090,12 @@
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:12" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="15">
-        <f>SUM(H$5:H28)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="15">
-        <f>SUM(I$5:I28)</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="15">
-        <f>SUM(J$5:J28)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="15">
-        <f>SUM(K$5:K28)</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="18"/>
+      <c r="L28" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
   <pageSetup scale="95" orientation="landscape" r:id="rId1"/>
